--- a/src/main/java/utilities/Networkservices.xlsx
+++ b/src/main/java/utilities/Networkservices.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santosh\Downloads\SSP\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69775727-5FDF-4E48-8B07-48F35FB868DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5203A6-B089-4742-9FFD-F1811BDB8BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E91957EA-3C0D-41E5-A957-FAD6457E094C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E91957EA-3C0D-41E5-A957-FAD6457E094C}"/>
   </bookViews>
   <sheets>
     <sheet name="NetworkservicesOption" sheetId="1" r:id="rId1"/>
     <sheet name="PublicIPPage" sheetId="2" r:id="rId2"/>
+    <sheet name="OpenPortPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Sl.no</t>
   </si>
@@ -51,32 +52,59 @@
     <t>VmName</t>
   </si>
   <si>
+    <t xml:space="preserve">Duration </t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>CancelOrSave</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>SIEM_Server_testing</t>
+  </si>
+  <si>
     <t>EC_Test_Win_10</t>
   </si>
   <si>
-    <t xml:space="preserve">Duration </t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>CancelOrSave</t>
-  </si>
-  <si>
-    <t>Save</t>
+    <t>PortNumber</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>3033</t>
+  </si>
+  <si>
+    <t>Test Automation</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>UDP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,9 +127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3590F55A-E843-4DD3-8462-D21BD5A8D672}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,24 +513,85 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA710642-1703-4031-B8D6-4217A14C4200}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/utilities/Networkservices.xlsx
+++ b/src/main/java/utilities/Networkservices.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santosh\Downloads\SSP\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5203A6-B089-4742-9FFD-F1811BDB8BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EC2A0B-07EF-47FC-B741-798BD8388B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E91957EA-3C0D-41E5-A957-FAD6457E094C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{E91957EA-3C0D-41E5-A957-FAD6457E094C}"/>
   </bookViews>
   <sheets>
     <sheet name="NetworkservicesOption" sheetId="1" r:id="rId1"/>
     <sheet name="PublicIPPage" sheetId="2" r:id="rId2"/>
     <sheet name="OpenPortPage" sheetId="3" r:id="rId3"/>
+    <sheet name="ClosePortPage" sheetId="4" r:id="rId4"/>
+    <sheet name="VlanCommunicationPage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Sl.no</t>
   </si>
@@ -76,16 +78,37 @@
     <t>Reason</t>
   </si>
   <si>
+    <t>Test Automation</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
     <t>3033</t>
   </si>
   <si>
-    <t>Test Automation</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>UDP</t>
+    <t xml:space="preserve">  Test Automation</t>
+  </si>
+  <si>
+    <t>FromVlan</t>
+  </si>
+  <si>
+    <t>ToVlan</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Mysuru - 10.150.39.0</t>
+  </si>
+  <si>
+    <t>Pune - 10.130.205.0</t>
+  </si>
+  <si>
+    <t>BiDirectional</t>
   </si>
 </sst>
 </file>
@@ -542,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA710642-1703-4031-B8D6-4217A14C4200}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -579,13 +602,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -597,4 +620,115 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2B3855-99A4-4E41-874C-984DF44C95DD}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAB7D66-C7D8-4203-AAF1-FE1E2C89F01E}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>